--- a/R_output_files/Tables/top_infection_genes_fc4.xlsx
+++ b/R_output_files/Tables/top_infection_genes_fc4.xlsx
@@ -384,7 +384,7 @@
         <v>-7.015542953881988</v>
       </c>
       <c r="C2">
-        <v>0.002475457323386624</v>
+        <v>0.002475457323673573</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>-4.566552261618233</v>
+        <v>-4.566552261618236</v>
       </c>
       <c r="C3">
-        <v>0.04632659953428916</v>
+        <v>0.04632659953585609</v>
       </c>
     </row>
     <row r="4">
@@ -410,7 +410,7 @@
         <v>-4.402773048584629</v>
       </c>
       <c r="C4">
-        <v>0.01791268932939229</v>
+        <v>0.01791268933046622</v>
       </c>
     </row>
     <row r="5">
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>-4.248675433928231</v>
+        <v>-4.248675433928228</v>
       </c>
       <c r="C5">
-        <v>0.01557323154892728</v>
+        <v>0.01557323154945418</v>
       </c>
     </row>
     <row r="6">
@@ -433,10 +433,10 @@
         </is>
       </c>
       <c r="B6">
-        <v>4.403195032825925</v>
+        <v>4.403195032825927</v>
       </c>
       <c r="C6">
-        <v>0.01763574010417309</v>
+        <v>0.01763574010326006</v>
       </c>
     </row>
     <row r="7">
@@ -446,10 +446,10 @@
         </is>
       </c>
       <c r="B7">
-        <v>4.458856104011831</v>
+        <v>4.458856104011833</v>
       </c>
       <c r="C7">
-        <v>0.001295299920993254</v>
+        <v>0.001295299921131314</v>
       </c>
     </row>
     <row r="8">
@@ -459,10 +459,10 @@
         </is>
       </c>
       <c r="B8">
-        <v>4.687161658924638</v>
+        <v>4.687161658924641</v>
       </c>
       <c r="C8">
-        <v>0.001726430185562854</v>
+        <v>0.001726430185642135</v>
       </c>
     </row>
     <row r="9">
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="B9">
-        <v>4.950718050006491</v>
+        <v>4.950718050006484</v>
       </c>
       <c r="C9">
-        <v>0.0009196851532549835</v>
+        <v>0.0009196851533286504</v>
       </c>
     </row>
     <row r="10">
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="B10">
-        <v>5.050350004744045</v>
+        <v>5.050350004744043</v>
       </c>
       <c r="C10">
-        <v>0.002329153828291241</v>
+        <v>0.002329153828131321</v>
       </c>
     </row>
     <row r="11">
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B11">
-        <v>5.169713885372582</v>
+        <v>5.169713885372581</v>
       </c>
       <c r="C11">
-        <v>0.002009219655518218</v>
+        <v>0.002009219655624703</v>
       </c>
     </row>
     <row r="12">
@@ -511,10 +511,10 @@
         </is>
       </c>
       <c r="B12">
-        <v>5.280249149498188</v>
+        <v>5.280249149498189</v>
       </c>
       <c r="C12">
-        <v>0.0008689191171967279</v>
+        <v>0.0008689191171020561</v>
       </c>
     </row>
   </sheetData>

--- a/R_output_files/Tables/top_infection_genes_fc4.xlsx
+++ b/R_output_files/Tables/top_infection_genes_fc4.xlsx
@@ -381,10 +381,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>-7.015542953881988</v>
+        <v>-7.015542953881983</v>
       </c>
       <c r="C2">
-        <v>0.002475457323386624</v>
+        <v>0.002475457323675066</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>-4.566552261618233</v>
+        <v>-4.566552261618236</v>
       </c>
       <c r="C3">
-        <v>0.04632659953428916</v>
+        <v>0.04632659953584024</v>
       </c>
     </row>
     <row r="4">
@@ -407,10 +407,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>-4.402773048584629</v>
+        <v>-4.402773048584626</v>
       </c>
       <c r="C4">
-        <v>0.01791268932939229</v>
+        <v>0.01791268933044462</v>
       </c>
     </row>
     <row r="5">
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>-4.248675433928231</v>
+        <v>-4.248675433928227</v>
       </c>
       <c r="C5">
-        <v>0.01557323154892728</v>
+        <v>0.0155732315494489</v>
       </c>
     </row>
     <row r="6">
@@ -433,10 +433,10 @@
         </is>
       </c>
       <c r="B6">
-        <v>4.403195032825925</v>
+        <v>4.403195032825928</v>
       </c>
       <c r="C6">
-        <v>0.01763574010417309</v>
+        <v>0.0176357401032901</v>
       </c>
     </row>
     <row r="7">
@@ -446,10 +446,10 @@
         </is>
       </c>
       <c r="B7">
-        <v>4.458856104011831</v>
+        <v>4.458856104011836</v>
       </c>
       <c r="C7">
-        <v>0.001295299920993254</v>
+        <v>0.001295299921130235</v>
       </c>
     </row>
     <row r="8">
@@ -459,10 +459,10 @@
         </is>
       </c>
       <c r="B8">
-        <v>4.687161658924638</v>
+        <v>4.687161658924641</v>
       </c>
       <c r="C8">
-        <v>0.001726430185562854</v>
+        <v>0.001726430185641106</v>
       </c>
     </row>
     <row r="9">
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="B9">
-        <v>4.950718050006491</v>
+        <v>4.950718050006488</v>
       </c>
       <c r="C9">
-        <v>0.0009196851532549835</v>
+        <v>0.0009196851533285508</v>
       </c>
     </row>
     <row r="10">
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="B10">
-        <v>5.050350004744045</v>
+        <v>5.050350004744043</v>
       </c>
       <c r="C10">
-        <v>0.002329153828291241</v>
+        <v>0.002329153828129136</v>
       </c>
     </row>
     <row r="11">
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B11">
-        <v>5.169713885372582</v>
+        <v>5.169713885372579</v>
       </c>
       <c r="C11">
-        <v>0.002009219655518218</v>
+        <v>0.0020092196556229</v>
       </c>
     </row>
     <row r="12">
@@ -514,7 +514,7 @@
         <v>5.280249149498188</v>
       </c>
       <c r="C12">
-        <v>0.0008689191171967279</v>
+        <v>0.0008689191171007392</v>
       </c>
     </row>
   </sheetData>
